--- a/second_pass/welfare_results/isoelastic_WR/analysis_results/f_change_isoelastic_wr.xlsx
+++ b/second_pass/welfare_results/isoelastic_WR/analysis_results/f_change_isoelastic_wr.xlsx
@@ -563,33 +563,17 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>2.37495373906189</v>
+        <v>1.13231067523832</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1.13231067523832</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.13231067523832</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
         <v>2.66986489813618</v>
       </c>
     </row>
